--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1204.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1204.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7567539035827261</v>
+        <v>1.168866515159607</v>
       </c>
       <c r="B1">
-        <v>1.410878938910275</v>
+        <v>2.441378831863403</v>
       </c>
       <c r="C1">
-        <v>5.219139449692494</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.174229002957124</v>
+        <v>2.364012956619263</v>
       </c>
       <c r="E1">
-        <v>1.518400406814722</v>
+        <v>1.236058592796326</v>
       </c>
     </row>
   </sheetData>
